--- a/Estrategia del proyecto/PDMaestroDocumentos.xlsx
+++ b/Estrategia del proyecto/PDMaestroDocumentos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscruz/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscruz/Desktop/METFOR/METFOR/Estrategia del proyecto/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
+    <workbookView xWindow="14440" yWindow="0" windowWidth="14360" windowHeight="18000" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitacora" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="98">
   <si>
     <t>METFOR</t>
   </si>
@@ -310,6 +310,18 @@
   </si>
   <si>
     <t>PDAdministracionConfiguracion</t>
+  </si>
+  <si>
+    <t>Acta de reunion Estrategia</t>
+  </si>
+  <si>
+    <t>PDActaReunion</t>
+  </si>
+  <si>
+    <t>Acta</t>
+  </si>
+  <si>
+    <t>Script Estrategia</t>
   </si>
 </sst>
 </file>
@@ -1010,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719B82D4-C3C9-463B-A7F7-479A47609B7D}">
   <dimension ref="B2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="88" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -1905,11 +1917,21 @@
       </c>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
+      <c r="B50" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F50" s="13">
+        <v>1</v>
+      </c>
       <c r="G50" s="14" t="s">
         <v>23</v>
       </c>
@@ -1918,11 +1940,21 @@
       </c>
     </row>
     <row r="51" spans="2:8">
-      <c r="B51" s="12"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
+      <c r="B51" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="13">
+        <v>1</v>
+      </c>
       <c r="G51" s="14" t="s">
         <v>23</v>
       </c>

--- a/Estrategia del proyecto/PDMaestroDocumentos.xlsx
+++ b/Estrategia del proyecto/PDMaestroDocumentos.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscruz/Desktop/METFOR/METFOR/Estrategia del proyecto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14440" yWindow="0" windowWidth="14360" windowHeight="18000" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Bitacora" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bitacora!$B$14:$H$59</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="106">
   <si>
     <t>METFOR</t>
   </si>
@@ -99,12 +99,6 @@
     <t>APRUEBA</t>
   </si>
   <si>
-    <t>Lider de Calidad</t>
-  </si>
-  <si>
-    <t>Lider de Equipo</t>
-  </si>
-  <si>
     <t>TIPO</t>
   </si>
   <si>
@@ -114,15 +108,6 @@
     <t>VERSIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bitacora de Estrategia Lider de Desarrollo</t>
-  </si>
-  <si>
-    <t>Bitacora de Estrategia Lider de Arquitectura</t>
-  </si>
-  <si>
-    <t>Bitacora de Estrategia Lider de Planeacion</t>
-  </si>
-  <si>
     <t>Bitacora de Estrategia Lider de Calidad</t>
   </si>
   <si>
@@ -141,24 +126,6 @@
     <t xml:space="preserve"> Bitacora</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bitacora de Lanzamiento Lider de Desarrollo</t>
-  </si>
-  <si>
-    <t>Bitacora de  Lanzamiento Lider de Soporte</t>
-  </si>
-  <si>
-    <t>Bitacora de Lanzamiento Lider de Arquitectura</t>
-  </si>
-  <si>
-    <t>Bitacora de Lanzamiento Lider de Planeacion</t>
-  </si>
-  <si>
-    <t>Bitacora de Lanzamiento Lider de Calidad</t>
-  </si>
-  <si>
-    <t>Bitacora de Lanzamiento Lider de Equipo</t>
-  </si>
-  <si>
     <t>Plantilla</t>
   </si>
   <si>
@@ -225,9 +192,6 @@
     <t>Estrategia</t>
   </si>
   <si>
-    <t>Bitacora de Estrategia Lider de Soporte</t>
-  </si>
-  <si>
     <t>Plantilla acta de constitucion Estrategia</t>
   </si>
   <si>
@@ -322,13 +286,73 @@
   </si>
   <si>
     <t>Script Estrategia</t>
+  </si>
+  <si>
+    <t>Líder de Calidad</t>
+  </si>
+  <si>
+    <t>Líder de Equipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bitacora de Lanzamiento Líder de Desarrollo</t>
+  </si>
+  <si>
+    <t>Bitacora de  Lanzamiento Líder de Soporte</t>
+  </si>
+  <si>
+    <t>Bitacora de Lanzamiento Líder de Arquitectura</t>
+  </si>
+  <si>
+    <t>Bitacora de Lanzamiento Líder de Planeacion</t>
+  </si>
+  <si>
+    <t>Bitacora de Lanzamiento Líder de Calidad</t>
+  </si>
+  <si>
+    <t>Bitacora de Lanzamiento Líder de Equipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bitacora de Estrategia Líder de Desarrollo</t>
+  </si>
+  <si>
+    <t>Bitacora de Estrategia Líder de Soporte</t>
+  </si>
+  <si>
+    <t>Bitacora de Estrategia Líder de Arquitectura</t>
+  </si>
+  <si>
+    <t>Bitacora de Estrategia Líder de Planeacion</t>
+  </si>
+  <si>
+    <t>Nombre:</t>
+  </si>
+  <si>
+    <t>Control de cambios</t>
+  </si>
+  <si>
+    <t>Comentario</t>
+  </si>
+  <si>
+    <t>Responsable</t>
+  </si>
+  <si>
+    <t>Registro deocumentos</t>
+  </si>
+  <si>
+    <t>Líder de Soporte</t>
+  </si>
+  <si>
+    <t>Correciones</t>
+  </si>
+  <si>
+    <t>Versión: 1,2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,7 +414,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -564,11 +588,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -651,12 +721,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -688,7 +798,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11164690-E88B-4297-8DAE-F2FFDC98F9AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{11164690-E88B-4297-8DAE-F2FFDC98F9AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1019,46 +1129,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719B82D4-C3C9-463B-A7F7-479A47609B7D}">
-  <dimension ref="B2:J59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="88" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="88" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="2"/>
-    <col min="2" max="2" width="10.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="10.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="26" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="57" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="18.1640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="37.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="11.5" style="2"/>
+    <col min="6" max="6" width="8.85546875" style="2" customWidth="1"/>
+    <col min="7" max="8" width="18.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="37.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="16">
+    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="2:10" ht="4.5" customHeight="1">
+    <row r="3" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="2:10" ht="16">
+    <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="6" spans="2:10" ht="16">
+    <row r="5" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1069,17 +1179,19 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="8" spans="2:10" ht="16">
+    <row r="7" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="2:10" ht="13.5" customHeight="1"/>
-    <row r="10" spans="2:10">
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+    <row r="9" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="34"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -1087,7 +1199,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="2:10" ht="9.75" customHeight="1">
+    <row r="11" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="6"/>
@@ -1097,17 +1209,17 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="2:10" ht="16" thickBot="1"/>
-    <row r="14" spans="2:10" ht="18" customHeight="1">
+    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="26" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>20</v>
@@ -1116,7 +1228,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G14" s="30" t="s">
         <v>21</v>
@@ -1125,7 +1237,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
@@ -1134,941 +1246,960 @@
       <c r="G15" s="31"/>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" ht="24" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F16" s="13">
         <v>1</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H16" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>26</v>
-      </c>
       <c r="D17" s="17" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F17" s="13">
         <v>1</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H17" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>26</v>
-      </c>
       <c r="D18" s="17" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F18" s="13">
         <v>1</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H18" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>26</v>
-      </c>
       <c r="D19" s="17" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F19" s="13">
         <v>1</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H19" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>26</v>
-      </c>
       <c r="D20" s="17" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F20" s="13">
         <v>1</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H20" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>26</v>
-      </c>
       <c r="D21" s="17" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F21" s="13">
         <v>1</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="E22" s="10" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F22" s="13">
         <v>2</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F23" s="13">
         <v>2</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="24.75" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F24" s="13">
         <v>2</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F25" s="13">
         <v>2</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F26" s="13">
         <v>2</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B27" s="19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="F27" s="13">
         <v>2</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B28" s="19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F28" s="18">
         <v>1</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B29" s="19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F29" s="13">
         <v>1</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="24" x14ac:dyDescent="0.25">
       <c r="B30" s="19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F30" s="13">
         <v>1</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H30" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="D31" s="18" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F31" s="13">
         <v>2</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H31" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="D32" s="17" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F32" s="13">
         <v>1</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H32" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="D33" s="17" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F33" s="13">
         <v>1</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H33" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="D34" s="17" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F34" s="13">
         <v>2</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H34" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="10" t="s">
+      <c r="D35" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="17" t="s">
-        <v>31</v>
-      </c>
       <c r="E35" s="13" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F35" s="13">
         <v>1</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H35" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="D36" s="17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F36" s="13">
         <v>2</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="19" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F37" s="13">
         <v>1</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="19" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F38" s="13">
         <v>1</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>76</v>
       </c>
       <c r="F39" s="13">
         <v>1</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="19" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F40" s="13">
         <v>1</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="19" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F41" s="13">
         <v>1</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="19" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F42" s="13">
         <v>1</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="19" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F43" s="13">
         <v>1</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="19" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F44" s="13">
         <v>1</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="19" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F45" s="13">
         <v>1</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F46" s="13">
         <v>1</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F47" s="13">
         <v>1</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F48" s="13">
         <v>1</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F49" s="13">
         <v>1</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F50" s="13">
         <v>1</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F51" s="13">
         <v>1</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="12"/>
       <c r="C52" s="13"/>
       <c r="D52" s="20"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
-      <c r="G52" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8">
+      <c r="G52" s="14"/>
+      <c r="H52" s="15"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="12"/>
       <c r="C53" s="13"/>
       <c r="D53" s="20"/>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
-      <c r="G53" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H53" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8">
+      <c r="G53" s="14"/>
+      <c r="H53" s="15"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="12"/>
       <c r="C54" s="13"/>
       <c r="D54" s="20"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
-      <c r="G54" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8">
+      <c r="G54" s="14"/>
+      <c r="H54" s="15"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="12"/>
       <c r="C55" s="13"/>
       <c r="D55" s="20"/>
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
-      <c r="G55" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H55" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8">
+      <c r="G55" s="14"/>
+      <c r="H55" s="15"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="12"/>
       <c r="C56" s="13"/>
       <c r="D56" s="20"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
-      <c r="G56" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H56" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8">
+      <c r="G56" s="14"/>
+      <c r="H56" s="15"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="12"/>
       <c r="C57" s="13"/>
       <c r="D57" s="20"/>
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
-      <c r="G57" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H57" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8">
+      <c r="G57" s="14"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="12"/>
       <c r="C58" s="13"/>
       <c r="D58" s="20"/>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
-      <c r="G58" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" ht="16" thickBot="1">
+      <c r="G58" s="14"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="12"/>
       <c r="C59" s="16"/>
       <c r="D59" s="21"/>
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
-      <c r="G59" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H59" s="15" t="s">
-        <v>24</v>
+      <c r="G59" s="14"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" s="37"/>
+      <c r="D62" s="38"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="39">
+        <v>43145</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" s="35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="39">
+        <v>43153</v>
+      </c>
+      <c r="C65" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" s="35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B14:H59" xr:uid="{F1589ACF-6535-FE46-990B-DE8C2392BE7C}"/>
-  <mergeCells count="7">
+  <autoFilter ref="B14:H59"/>
+  <mergeCells count="8">
+    <mergeCell ref="B62:D62"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="B14:B15"/>
@@ -2084,22 +2215,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A158D40E-5D6C-47A9-A9CA-B1F977D66D79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.5" customWidth="1"/>
+    <col min="6" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="32" t="s">
         <v>17</v>
       </c>
@@ -2109,7 +2240,7 @@
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
@@ -2117,7 +2248,7 @@
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
@@ -2125,7 +2256,7 @@
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
@@ -2133,7 +2264,7 @@
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
@@ -2141,7 +2272,7 @@
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
@@ -2149,7 +2280,7 @@
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="32" t="s">
         <v>16</v>
       </c>
@@ -2159,7 +2290,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -2167,7 +2298,7 @@
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -2175,7 +2306,7 @@
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
@@ -2183,7 +2314,7 @@
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
@@ -2191,7 +2322,7 @@
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
@@ -2199,7 +2330,7 @@
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="32" t="s">
         <v>15</v>
       </c>
@@ -2209,7 +2340,7 @@
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
@@ -2217,7 +2348,7 @@
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
@@ -2225,7 +2356,7 @@
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
@@ -2233,7 +2364,7 @@
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -2241,7 +2372,7 @@
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
@@ -2249,7 +2380,7 @@
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="32" t="s">
         <v>9</v>
       </c>
@@ -2259,7 +2390,7 @@
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>3</v>
       </c>
@@ -2279,7 +2410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2287,7 +2418,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -2295,7 +2426,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -2303,7 +2434,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -2311,7 +2442,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -2319,7 +2450,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -2327,7 +2458,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -2335,7 +2466,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -2343,7 +2474,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -2351,7 +2482,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -2359,7 +2490,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -2367,7 +2498,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -2375,7 +2506,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -2383,7 +2514,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="32" t="s">
         <v>10</v>
       </c>
@@ -2393,7 +2524,7 @@
       <c r="F35" s="32"/>
       <c r="G35" s="32"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
@@ -2401,7 +2532,7 @@
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
@@ -2409,7 +2540,7 @@
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
@@ -2417,7 +2548,7 @@
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
@@ -2425,7 +2556,7 @@
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
@@ -2433,7 +2564,7 @@
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
@@ -2441,7 +2572,7 @@
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="32" t="s">
         <v>11</v>
       </c>
@@ -2451,7 +2582,7 @@
       <c r="F42" s="32"/>
       <c r="G42" s="32"/>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
@@ -2459,7 +2590,7 @@
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
@@ -2467,7 +2598,7 @@
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
@@ -2475,7 +2606,7 @@
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
@@ -2483,7 +2614,7 @@
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
@@ -2491,7 +2622,7 @@
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="32" t="s">
         <v>14</v>
       </c>
@@ -2501,7 +2632,7 @@
       <c r="F48" s="32"/>
       <c r="G48" s="32"/>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="33" t="s">
         <v>12</v>
       </c>
@@ -2515,7 +2646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2523,7 +2654,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2531,7 +2662,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2539,7 +2670,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2547,7 +2678,7 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2555,7 +2686,7 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
